--- a/Code/Results/Cases/Case_1_70/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_70/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.16531688747726</v>
+        <v>6.479741854214802</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.439940510091946</v>
+        <v>10.1193391787791</v>
       </c>
       <c r="E2">
-        <v>11.48149197683404</v>
+        <v>14.05621295591393</v>
       </c>
       <c r="F2">
-        <v>19.40027841644226</v>
+        <v>28.39693932865039</v>
       </c>
       <c r="G2">
-        <v>19.30050851668999</v>
+        <v>26.93368770125346</v>
       </c>
       <c r="H2">
-        <v>8.038681096393153</v>
+        <v>13.89643175932336</v>
       </c>
       <c r="I2">
-        <v>12.68284054727642</v>
+        <v>19.16038114729668</v>
       </c>
       <c r="J2">
-        <v>6.266858448523248</v>
+        <v>9.754796521151899</v>
       </c>
       <c r="K2">
-        <v>18.0295135806852</v>
+        <v>11.60143225170288</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.80260829649208</v>
+        <v>20.8971927117789</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.682857778254215</v>
+        <v>6.312005066377872</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.044247222847748</v>
+        <v>10.05046149670758</v>
       </c>
       <c r="E3">
-        <v>10.98268377989145</v>
+        <v>13.98639667277381</v>
       </c>
       <c r="F3">
-        <v>19.07771962285155</v>
+        <v>28.46183746384721</v>
       </c>
       <c r="G3">
-        <v>18.98873184054271</v>
+        <v>27.03561526224394</v>
       </c>
       <c r="H3">
-        <v>8.114726938415393</v>
+        <v>13.95132682990074</v>
       </c>
       <c r="I3">
-        <v>12.97733306697138</v>
+        <v>19.27309509879225</v>
       </c>
       <c r="J3">
-        <v>6.155957447218505</v>
+        <v>9.760658313036693</v>
       </c>
       <c r="K3">
-        <v>16.97546598763376</v>
+        <v>11.10622106096201</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.83652180200314</v>
+        <v>20.98896411666256</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.370244557706758</v>
+        <v>6.207256546673343</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.794244480415817</v>
+        <v>10.00957581456908</v>
       </c>
       <c r="E4">
-        <v>10.67070958448002</v>
+        <v>13.94622305105211</v>
       </c>
       <c r="F4">
-        <v>18.89758401353901</v>
+        <v>28.50945971369497</v>
       </c>
       <c r="G4">
-        <v>18.82592942662011</v>
+        <v>27.10842452916109</v>
       </c>
       <c r="H4">
-        <v>8.167518060771432</v>
+        <v>13.98748116101448</v>
       </c>
       <c r="I4">
-        <v>13.16573219584301</v>
+        <v>19.34626150236928</v>
       </c>
       <c r="J4">
-        <v>6.090312304349619</v>
+        <v>9.765818234251771</v>
       </c>
       <c r="K4">
-        <v>16.29349270081613</v>
+        <v>10.79030290331223</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.87180032013566</v>
+        <v>21.05037608163059</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.238762249722523</v>
+        <v>6.164188109753275</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.690729837652757</v>
+        <v>9.993281924866796</v>
       </c>
       <c r="E5">
-        <v>10.54233023701758</v>
+        <v>13.93054263609502</v>
       </c>
       <c r="F5">
-        <v>18.82865408625815</v>
+        <v>28.53081561953762</v>
       </c>
       <c r="G5">
-        <v>18.76663264909319</v>
+        <v>27.14065098111383</v>
       </c>
       <c r="H5">
-        <v>8.190503788800415</v>
+        <v>14.00282993662217</v>
       </c>
       <c r="I5">
-        <v>13.2443911725643</v>
+        <v>19.37707480589347</v>
       </c>
       <c r="J5">
-        <v>6.064195684063637</v>
+        <v>9.768313810753511</v>
       </c>
       <c r="K5">
-        <v>16.006926655994</v>
+        <v>10.65873631755993</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.88964714207702</v>
+        <v>21.07667224262833</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.216683760293388</v>
+        <v>6.157015322992955</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.673446820497507</v>
+        <v>9.990598920259306</v>
       </c>
       <c r="E6">
-        <v>10.52094352906439</v>
+        <v>13.9279809985142</v>
       </c>
       <c r="F6">
-        <v>18.81747751810817</v>
+        <v>28.53447932015997</v>
       </c>
       <c r="G6">
-        <v>18.75720683511788</v>
+        <v>27.14615608031772</v>
       </c>
       <c r="H6">
-        <v>8.194407798237764</v>
+        <v>14.00541576636616</v>
       </c>
       <c r="I6">
-        <v>13.25756573099251</v>
+        <v>19.38225162359731</v>
       </c>
       <c r="J6">
-        <v>6.059897865957251</v>
+        <v>9.76875193707197</v>
       </c>
       <c r="K6">
-        <v>15.95882295479827</v>
+        <v>10.63672394094123</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.89281540037724</v>
+        <v>21.0811153316111</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.368487854715065</v>
+        <v>6.206677178756009</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.79285487828141</v>
+        <v>10.00935456407184</v>
       </c>
       <c r="E7">
-        <v>10.66898300188163</v>
+        <v>13.94600876619784</v>
       </c>
       <c r="F7">
-        <v>18.89663632517728</v>
+        <v>28.50973984141439</v>
       </c>
       <c r="G7">
-        <v>18.82510142873364</v>
+        <v>27.10884881755814</v>
       </c>
       <c r="H7">
-        <v>8.167822168401472</v>
+        <v>13.98768566760519</v>
       </c>
       <c r="I7">
-        <v>13.16678541176838</v>
+        <v>19.34667302058856</v>
       </c>
       <c r="J7">
-        <v>6.089957494606849</v>
+        <v>9.765850299317266</v>
       </c>
       <c r="K7">
-        <v>16.28966288058869</v>
+        <v>10.78853977910278</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.87202717371633</v>
+        <v>21.05072558161999</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.0023794155362</v>
+        <v>6.422305525904645</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.305042614090603</v>
+        <v>10.09530697354266</v>
       </c>
       <c r="E8">
-        <v>11.310791710797</v>
+        <v>14.03158943481443</v>
       </c>
       <c r="F8">
-        <v>19.28532985060829</v>
+        <v>28.41769946756887</v>
       </c>
       <c r="G8">
-        <v>19.1869861961099</v>
+        <v>26.96670120431344</v>
       </c>
       <c r="H8">
-        <v>8.063598479835909</v>
+        <v>13.91485131794706</v>
       </c>
       <c r="I8">
-        <v>12.7827944550625</v>
+        <v>19.19842414347034</v>
       </c>
       <c r="J8">
-        <v>6.228123127665173</v>
+        <v>9.756494003409149</v>
       </c>
       <c r="K8">
-        <v>17.6733431333875</v>
+        <v>11.43323022728564</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.81120266369875</v>
+        <v>20.92778262519445</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.114659282201124</v>
+        <v>6.828777154910239</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.24860106354056</v>
+        <v>10.2743742861344</v>
       </c>
       <c r="E9">
-        <v>12.51709738721511</v>
+        <v>14.2201620323443</v>
       </c>
       <c r="F9">
-        <v>20.19014549998998</v>
+        <v>28.29911640174824</v>
       </c>
       <c r="G9">
-        <v>20.12859424091912</v>
+        <v>26.76971954325784</v>
       </c>
       <c r="H9">
-        <v>7.910484935958098</v>
+        <v>13.79145636532852</v>
       </c>
       <c r="I9">
-        <v>12.09110777509276</v>
+        <v>18.93904770217095</v>
       </c>
       <c r="J9">
-        <v>6.517631999508795</v>
+        <v>9.750509088258834</v>
       </c>
       <c r="K9">
-        <v>20.10808039755979</v>
+        <v>12.59764311007743</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.81391214032395</v>
+        <v>20.72700859903971</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.851608181255029</v>
+        <v>7.114436374926236</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.89940416549517</v>
+        <v>10.41146080765787</v>
       </c>
       <c r="E10">
-        <v>13.36371120814705</v>
+        <v>14.37046074341832</v>
       </c>
       <c r="F10">
-        <v>20.94144032461677</v>
+        <v>28.24999568704956</v>
       </c>
       <c r="G10">
-        <v>20.96567030836335</v>
+        <v>26.67565033294592</v>
       </c>
       <c r="H10">
-        <v>7.833443376700296</v>
+        <v>13.71265167142893</v>
       </c>
       <c r="I10">
-        <v>11.62235862838574</v>
+        <v>18.76748039223007</v>
       </c>
       <c r="J10">
-        <v>6.740483191205547</v>
+        <v>9.753614970396535</v>
       </c>
       <c r="K10">
-        <v>21.72493530250509</v>
+        <v>13.3858549115165</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.90002837028187</v>
+        <v>20.6042627779399</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.16945450743226</v>
+        <v>7.241016101368622</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.18545075267606</v>
+        <v>10.47482899352876</v>
       </c>
       <c r="E11">
-        <v>13.739027655278</v>
+        <v>14.4411813493935</v>
       </c>
       <c r="F11">
-        <v>21.301697706416</v>
+        <v>28.23594242244596</v>
       </c>
       <c r="G11">
-        <v>21.37817985952906</v>
+        <v>26.64400419352246</v>
       </c>
       <c r="H11">
-        <v>7.807069631699592</v>
+        <v>13.67937703808339</v>
       </c>
       <c r="I11">
-        <v>11.41827951652025</v>
+        <v>18.69353264686819</v>
       </c>
       <c r="J11">
-        <v>6.843825225251862</v>
+        <v>9.756647552340826</v>
       </c>
       <c r="K11">
-        <v>22.42304559038208</v>
+        <v>13.72878066605303</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.95946977360763</v>
+        <v>20.55383845358569</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.28731936250381</v>
+        <v>7.288422979949696</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.29228068633728</v>
+        <v>10.49895277905228</v>
       </c>
       <c r="E12">
-        <v>13.87966284164862</v>
+        <v>14.46828077785819</v>
       </c>
       <c r="F12">
-        <v>21.44073914390144</v>
+        <v>28.23181526328618</v>
       </c>
       <c r="G12">
-        <v>21.53892413927024</v>
+        <v>26.63363385725048</v>
       </c>
       <c r="H12">
-        <v>7.798415291949562</v>
+        <v>13.66714717763693</v>
       </c>
       <c r="I12">
-        <v>11.34238148936606</v>
+        <v>18.66611846449621</v>
       </c>
       <c r="J12">
-        <v>6.883221633286417</v>
+        <v>9.758027777913506</v>
       </c>
       <c r="K12">
-        <v>22.68202928861935</v>
+        <v>13.85631984419778</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.98504811392603</v>
+        <v>20.53552570394248</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.26204598142833</v>
+        <v>7.278237085304684</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.26933988523215</v>
+        <v>10.49375188854301</v>
       </c>
       <c r="E13">
-        <v>13.84944181969708</v>
+        <v>14.46243054396062</v>
       </c>
       <c r="F13">
-        <v>21.41067821580021</v>
+        <v>28.23265096962241</v>
       </c>
       <c r="G13">
-        <v>21.50410383206982</v>
+        <v>26.63579538590689</v>
       </c>
       <c r="H13">
-        <v>7.800218478180838</v>
+        <v>13.6697646116756</v>
       </c>
       <c r="I13">
-        <v>11.3586648338882</v>
+        <v>18.67199645655444</v>
       </c>
       <c r="J13">
-        <v>6.874725510265452</v>
+        <v>9.757720228156572</v>
       </c>
       <c r="K13">
-        <v>22.62649143076402</v>
+        <v>13.82895616478065</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.9794004772668</v>
+        <v>20.53943485562907</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.17920131620795</v>
+        <v>7.244927064041653</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.19426981971585</v>
+        <v>10.47681121278396</v>
       </c>
       <c r="E14">
-        <v>13.75062802365126</v>
+        <v>14.4434045501292</v>
       </c>
       <c r="F14">
-        <v>21.31308445793761</v>
+        <v>28.23557892958244</v>
       </c>
       <c r="G14">
-        <v>21.39131368886944</v>
+        <v>26.64311862970784</v>
       </c>
       <c r="H14">
-        <v>7.806330418461123</v>
+        <v>13.6783634520823</v>
       </c>
       <c r="I14">
-        <v>11.41200721765479</v>
+        <v>18.69126548347805</v>
       </c>
       <c r="J14">
-        <v>6.847061227186243</v>
+        <v>9.756756464176917</v>
       </c>
       <c r="K14">
-        <v>22.44446001279497</v>
+        <v>13.73932024078648</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.96151174939022</v>
+        <v>20.55231616391879</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.12813163378128</v>
+        <v>7.224454021917872</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.14809193235192</v>
+        <v>10.46645066911903</v>
       </c>
       <c r="E15">
-        <v>13.68990579015245</v>
+        <v>14.43179156731428</v>
       </c>
       <c r="F15">
-        <v>21.25364542978987</v>
+        <v>28.23752799895818</v>
       </c>
       <c r="G15">
-        <v>21.3228161228743</v>
+        <v>26.64781472664401</v>
       </c>
       <c r="H15">
-        <v>7.810250336632634</v>
+        <v>13.68367875442307</v>
       </c>
       <c r="I15">
-        <v>11.44486313781091</v>
+        <v>18.70314488777699</v>
       </c>
       <c r="J15">
-        <v>6.830149750924797</v>
+        <v>9.756196291358501</v>
       </c>
       <c r="K15">
-        <v>22.33226073771668</v>
+        <v>13.68411168743071</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.95095854559598</v>
+        <v>20.5603082571262</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.8304864600229</v>
+        <v>7.106092659483133</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.880504371641068</v>
+        <v>10.4073383452231</v>
       </c>
       <c r="E16">
-        <v>13.33897887626702</v>
+        <v>14.36588466617122</v>
       </c>
       <c r="F16">
-        <v>20.91826545859523</v>
+        <v>28.25108115755381</v>
       </c>
       <c r="G16">
-        <v>20.93934836674385</v>
+        <v>26.6779437065312</v>
       </c>
       <c r="H16">
-        <v>7.835348723492832</v>
+        <v>13.71487807499031</v>
       </c>
       <c r="I16">
-        <v>11.63588527169687</v>
+        <v>18.77239542978637</v>
       </c>
       <c r="J16">
-        <v>6.733767389672093</v>
+        <v>9.753449289017828</v>
       </c>
       <c r="K16">
-        <v>21.67855950610097</v>
+        <v>13.36312294637735</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.89656496448826</v>
+        <v>20.60766734984696</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.643437601916304</v>
+        <v>7.032588219330252</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.713745081462438</v>
+        <v>10.371320574359</v>
       </c>
       <c r="E17">
-        <v>13.12112226582733</v>
+        <v>14.32604141292919</v>
       </c>
       <c r="F17">
-        <v>20.7172297798884</v>
+        <v>28.26152113150635</v>
       </c>
       <c r="G17">
-        <v>20.71221544820595</v>
+        <v>26.69928962390651</v>
       </c>
       <c r="H17">
-        <v>7.853026892571302</v>
+        <v>13.73467738151262</v>
       </c>
       <c r="I17">
-        <v>11.75545943749625</v>
+        <v>18.81592738204233</v>
       </c>
       <c r="J17">
-        <v>6.675128996269134</v>
+        <v>9.752178224046707</v>
       </c>
       <c r="K17">
-        <v>21.26795354841741</v>
+        <v>13.16214785862148</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.86849961959159</v>
+        <v>20.63810955746945</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.53421415830144</v>
+        <v>6.989995645216101</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.616889855756639</v>
+        <v>10.35069991299736</v>
       </c>
       <c r="E18">
-        <v>12.99489680813794</v>
+        <v>14.30334688142353</v>
       </c>
       <c r="F18">
-        <v>20.6033423813481</v>
+        <v>28.26830633370574</v>
       </c>
       <c r="G18">
-        <v>20.58456312569667</v>
+        <v>26.7126158345276</v>
       </c>
       <c r="H18">
-        <v>7.864005878205699</v>
+        <v>13.74630767396495</v>
       </c>
       <c r="I18">
-        <v>11.82509266119299</v>
+        <v>18.8413517040985</v>
       </c>
       <c r="J18">
-        <v>6.641587884290036</v>
+        <v>9.751599666452599</v>
       </c>
       <c r="K18">
-        <v>21.02826218185229</v>
+        <v>13.04508404632249</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.85425595495154</v>
+        <v>20.6561284409367</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.496951584062996</v>
+        <v>6.975521805419145</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.583936691269955</v>
+        <v>10.34373508639037</v>
       </c>
       <c r="E19">
-        <v>12.95200367489602</v>
+        <v>14.29570163616437</v>
       </c>
       <c r="F19">
-        <v>20.56508255779518</v>
+        <v>28.27073764384649</v>
       </c>
       <c r="G19">
-        <v>20.54185598975807</v>
+        <v>26.71730761724463</v>
       </c>
       <c r="H19">
-        <v>7.867859908398667</v>
+        <v>13.75028708733022</v>
       </c>
       <c r="I19">
-        <v>11.84881471819173</v>
+        <v>18.85002625856114</v>
       </c>
       <c r="J19">
-        <v>6.630264033322309</v>
+        <v>9.751430003310697</v>
       </c>
       <c r="K19">
-        <v>20.94650202645171</v>
+        <v>13.00519842875789</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.84975456919369</v>
+        <v>20.66231669846677</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.663518764353942</v>
+        <v>7.040445784009894</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.73159455259837</v>
+        <v>10.37514493556426</v>
       </c>
       <c r="E20">
-        <v>13.14440932106083</v>
+        <v>14.33025992657783</v>
       </c>
       <c r="F20">
-        <v>20.73845024883803</v>
+        <v>28.26032899142697</v>
       </c>
       <c r="G20">
-        <v>20.73608496051353</v>
+        <v>26.6969087076334</v>
       </c>
       <c r="H20">
-        <v>7.851060479940614</v>
+        <v>13.73254463632784</v>
       </c>
       <c r="I20">
-        <v>11.74264139714404</v>
+        <v>18.81125340179688</v>
       </c>
       <c r="J20">
-        <v>6.68135203577616</v>
+        <v>9.752297752539908</v>
       </c>
       <c r="K20">
-        <v>21.3120277435008</v>
+        <v>13.18369450926079</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.87128956079063</v>
+        <v>20.63481619376189</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.20360250469536</v>
+        <v>7.254725617897736</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.21636049303071</v>
+        <v>10.48178377352417</v>
       </c>
       <c r="E21">
-        <v>13.77969297755736</v>
+        <v>14.4489844380296</v>
       </c>
       <c r="F21">
-        <v>21.34167933459274</v>
+        <v>28.23468648526688</v>
       </c>
       <c r="G21">
-        <v>21.42432007304891</v>
+        <v>26.640923751646</v>
       </c>
       <c r="H21">
-        <v>7.804498320097128</v>
+        <v>13.6758277052802</v>
       </c>
       <c r="I21">
-        <v>11.39630116797541</v>
+        <v>18.68558974838346</v>
       </c>
       <c r="J21">
-        <v>6.85517990835796</v>
+        <v>9.757033261679501</v>
       </c>
       <c r="K21">
-        <v>22.49807286511533</v>
+        <v>13.76571194081932</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.96668161103769</v>
+        <v>20.54851136539603</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.54203074282723</v>
+        <v>7.391686491217044</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.52448453538402</v>
+        <v>10.55221429322346</v>
       </c>
       <c r="E22">
-        <v>14.18618430003482</v>
+        <v>14.52842851204531</v>
       </c>
       <c r="F22">
-        <v>21.7511752147428</v>
+        <v>28.22489053463476</v>
       </c>
       <c r="G22">
-        <v>21.90053757576131</v>
+        <v>26.61374225184043</v>
       </c>
       <c r="H22">
-        <v>7.78187827576553</v>
+        <v>13.64091977858878</v>
       </c>
       <c r="I22">
-        <v>11.17804452651499</v>
+        <v>18.60688938150007</v>
       </c>
       <c r="J22">
-        <v>6.970311649534954</v>
+        <v>9.761479023249301</v>
       </c>
       <c r="K22">
-        <v>23.24189784049095</v>
+        <v>14.13254971969801</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.04698134667838</v>
+        <v>20.49666491868753</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.36273383887062</v>
+        <v>7.318882871678708</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.36084259234025</v>
+        <v>10.51456256788167</v>
       </c>
       <c r="E23">
-        <v>13.97004992105466</v>
+        <v>14.48586468759151</v>
       </c>
       <c r="F23">
-        <v>21.53123754506182</v>
+        <v>28.22948121961317</v>
       </c>
       <c r="G23">
-        <v>21.64396674940896</v>
+        <v>26.62738556734108</v>
       </c>
       <c r="H23">
-        <v>7.793207069151443</v>
+        <v>13.65935303885494</v>
       </c>
       <c r="I23">
-        <v>11.2937664110725</v>
+        <v>18.64857996521359</v>
       </c>
       <c r="J23">
-        <v>6.908730190506788</v>
+        <v>9.758983018255691</v>
       </c>
       <c r="K23">
-        <v>22.8477669036693</v>
+        <v>13.93802138126363</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.00243186515983</v>
+        <v>20.52391810508396</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.654445324407703</v>
+        <v>7.036894415814234</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.723527864823156</v>
+        <v>10.37341567133357</v>
       </c>
       <c r="E24">
-        <v>13.13388427976329</v>
+        <v>14.32835207515437</v>
       </c>
       <c r="F24">
-        <v>20.72885120574696</v>
+        <v>28.26086551875326</v>
       </c>
       <c r="G24">
-        <v>20.72528442774338</v>
+        <v>26.69798183705822</v>
       </c>
       <c r="H24">
-        <v>7.851946961215313</v>
+        <v>13.73350807978601</v>
       </c>
       <c r="I24">
-        <v>11.74843367067796</v>
+        <v>18.81336527085983</v>
       </c>
       <c r="J24">
-        <v>6.678538065842872</v>
+        <v>9.75224323956081</v>
       </c>
       <c r="K24">
-        <v>21.29211310210578</v>
+        <v>13.17395799920415</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.8700223486837</v>
+        <v>20.63630351253056</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.827837061974602</v>
+        <v>6.720892700492636</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.00047214396446</v>
+        <v>10.22489583345978</v>
       </c>
       <c r="E25">
-        <v>12.19724407690698</v>
+        <v>14.16701599230873</v>
       </c>
       <c r="F25">
-        <v>19.93009451626309</v>
+        <v>28.32453876374265</v>
       </c>
       <c r="G25">
-        <v>19.8484972544355</v>
+        <v>26.81416710093865</v>
       </c>
       <c r="H25">
-        <v>7.945998214051862</v>
+        <v>13.82275689951304</v>
       </c>
       <c r="I25">
-        <v>12.27147742030493</v>
+        <v>19.00587226443685</v>
       </c>
       <c r="J25">
-        <v>6.437445000243745</v>
+        <v>9.750807639949146</v>
       </c>
       <c r="K25">
-        <v>19.47953319696597</v>
+        <v>12.2940530901943</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.79909877260857</v>
+        <v>20.77698789190762</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_70/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_70/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.479741854214802</v>
+        <v>8.165316887477362</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.1193391787791</v>
+        <v>8.439940510091867</v>
       </c>
       <c r="E2">
-        <v>14.05621295591393</v>
+        <v>11.48149197683402</v>
       </c>
       <c r="F2">
-        <v>28.39693932865039</v>
+        <v>19.40027841644217</v>
       </c>
       <c r="G2">
-        <v>26.93368770125346</v>
+        <v>19.30050851669002</v>
       </c>
       <c r="H2">
-        <v>13.89643175932336</v>
+        <v>8.038681096393105</v>
       </c>
       <c r="I2">
-        <v>19.16038114729668</v>
+        <v>12.68284054727641</v>
       </c>
       <c r="J2">
-        <v>9.754796521151899</v>
+        <v>6.266858448523285</v>
       </c>
       <c r="K2">
-        <v>11.60143225170288</v>
+        <v>18.02951358068524</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.8971927117789</v>
+        <v>12.80260829649204</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.312005066377872</v>
+        <v>7.682857778254223</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.05046149670758</v>
+        <v>8.044247222847815</v>
       </c>
       <c r="E3">
-        <v>13.98639667277381</v>
+        <v>10.98268377989145</v>
       </c>
       <c r="F3">
-        <v>28.46183746384721</v>
+        <v>19.07771962285151</v>
       </c>
       <c r="G3">
-        <v>27.03561526224394</v>
+        <v>18.98873184054256</v>
       </c>
       <c r="H3">
-        <v>13.95132682990074</v>
+        <v>8.114726938415389</v>
       </c>
       <c r="I3">
-        <v>19.27309509879225</v>
+        <v>12.97733306697138</v>
       </c>
       <c r="J3">
-        <v>9.760658313036693</v>
+        <v>6.155957447218452</v>
       </c>
       <c r="K3">
-        <v>11.10622106096201</v>
+        <v>16.97546598763383</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.98896411666256</v>
+        <v>12.83652180200303</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.207256546673343</v>
+        <v>7.370244557706792</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.00957581456908</v>
+        <v>7.794244480415781</v>
       </c>
       <c r="E4">
-        <v>13.94622305105211</v>
+        <v>10.67070958447993</v>
       </c>
       <c r="F4">
-        <v>28.50945971369497</v>
+        <v>18.89758401353869</v>
       </c>
       <c r="G4">
-        <v>27.10842452916109</v>
+        <v>18.82592942661976</v>
       </c>
       <c r="H4">
-        <v>13.98748116101448</v>
+        <v>8.167518060771249</v>
       </c>
       <c r="I4">
-        <v>19.34626150236928</v>
+        <v>13.16573219584298</v>
       </c>
       <c r="J4">
-        <v>9.765818234251771</v>
+        <v>6.090312304349587</v>
       </c>
       <c r="K4">
-        <v>10.79030290331223</v>
+        <v>16.29349270081622</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.05037608163059</v>
+        <v>12.87180032013545</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.164188109753275</v>
+        <v>7.238762249722523</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.993281924866796</v>
+        <v>7.690729837652718</v>
       </c>
       <c r="E5">
-        <v>13.93054263609502</v>
+        <v>10.54233023701755</v>
       </c>
       <c r="F5">
-        <v>28.53081561953762</v>
+        <v>18.82865408625804</v>
       </c>
       <c r="G5">
-        <v>27.14065098111383</v>
+        <v>18.76663264909316</v>
       </c>
       <c r="H5">
-        <v>14.00282993662217</v>
+        <v>8.190503788800353</v>
       </c>
       <c r="I5">
-        <v>19.37707480589347</v>
+        <v>13.2443911725643</v>
       </c>
       <c r="J5">
-        <v>9.768313810753511</v>
+        <v>6.064195684063595</v>
       </c>
       <c r="K5">
-        <v>10.65873631755993</v>
+        <v>16.00692665599403</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.07667224262833</v>
+        <v>12.88964714207695</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.157015322992955</v>
+        <v>7.216683760293316</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.990598920259306</v>
+        <v>7.673446820497505</v>
       </c>
       <c r="E6">
-        <v>13.9279809985142</v>
+        <v>10.52094352906441</v>
       </c>
       <c r="F6">
-        <v>28.53447932015997</v>
+        <v>18.81747751810813</v>
       </c>
       <c r="G6">
-        <v>27.14615608031772</v>
+        <v>18.75720683511773</v>
       </c>
       <c r="H6">
-        <v>14.00541576636616</v>
+        <v>8.194407798237819</v>
       </c>
       <c r="I6">
-        <v>19.38225162359731</v>
+        <v>13.25756573099241</v>
       </c>
       <c r="J6">
-        <v>9.76875193707197</v>
+        <v>6.059897865957235</v>
       </c>
       <c r="K6">
-        <v>10.63672394094123</v>
+        <v>15.95882295479822</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.0811153316111</v>
+        <v>12.89281540037718</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.206677178756009</v>
+        <v>7.368487854714993</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.00935456407184</v>
+        <v>7.792854878281401</v>
       </c>
       <c r="E7">
-        <v>13.94600876619784</v>
+        <v>10.66898300188163</v>
       </c>
       <c r="F7">
-        <v>28.50973984141439</v>
+        <v>18.89663632517715</v>
       </c>
       <c r="G7">
-        <v>27.10884881755814</v>
+        <v>18.82510142873337</v>
       </c>
       <c r="H7">
-        <v>13.98768566760519</v>
+        <v>8.16782216840142</v>
       </c>
       <c r="I7">
-        <v>19.34667302058856</v>
+        <v>13.16678541176841</v>
       </c>
       <c r="J7">
-        <v>9.765850299317266</v>
+        <v>6.089957494606849</v>
       </c>
       <c r="K7">
-        <v>10.78853977910278</v>
+        <v>16.28966288058879</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.05072558161999</v>
+        <v>12.87202717371617</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.422305525904645</v>
+        <v>8.002379415536206</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.09530697354266</v>
+        <v>8.30504261409059</v>
       </c>
       <c r="E8">
-        <v>14.03158943481443</v>
+        <v>11.31079171079695</v>
       </c>
       <c r="F8">
-        <v>28.41769946756887</v>
+        <v>19.28532985060827</v>
       </c>
       <c r="G8">
-        <v>26.96670120431344</v>
+        <v>19.18698619610995</v>
       </c>
       <c r="H8">
-        <v>13.91485131794706</v>
+        <v>8.063598479835903</v>
       </c>
       <c r="I8">
-        <v>19.19842414347034</v>
+        <v>12.78279445506244</v>
       </c>
       <c r="J8">
-        <v>9.756494003409149</v>
+        <v>6.22812312766515</v>
       </c>
       <c r="K8">
-        <v>11.43323022728564</v>
+        <v>17.67334313338743</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.92778262519445</v>
+        <v>12.81120266369877</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.828777154910239</v>
+        <v>9.114659282201162</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.2743742861344</v>
+        <v>9.248601063540519</v>
       </c>
       <c r="E9">
-        <v>14.2201620323443</v>
+        <v>12.51709738721512</v>
       </c>
       <c r="F9">
-        <v>28.29911640174824</v>
+        <v>20.19014549998984</v>
       </c>
       <c r="G9">
-        <v>26.76971954325784</v>
+        <v>20.12859424091889</v>
       </c>
       <c r="H9">
-        <v>13.79145636532852</v>
+        <v>7.910484935958049</v>
       </c>
       <c r="I9">
-        <v>18.93904770217095</v>
+        <v>12.09110777509269</v>
       </c>
       <c r="J9">
-        <v>9.750509088258834</v>
+        <v>6.517631999508798</v>
       </c>
       <c r="K9">
-        <v>12.59764311007743</v>
+        <v>20.10808039755985</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.72700859903971</v>
+        <v>12.8139121403238</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.114436374926236</v>
+        <v>9.851608181255031</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.41146080765787</v>
+        <v>9.899404165495124</v>
       </c>
       <c r="E10">
-        <v>14.37046074341832</v>
+        <v>13.36371120814702</v>
       </c>
       <c r="F10">
-        <v>28.24999568704956</v>
+        <v>20.94144032461668</v>
       </c>
       <c r="G10">
-        <v>26.67565033294592</v>
+        <v>20.96567030836329</v>
       </c>
       <c r="H10">
-        <v>13.71265167142893</v>
+        <v>7.8334433767003</v>
       </c>
       <c r="I10">
-        <v>18.76748039223007</v>
+        <v>11.62235862838579</v>
       </c>
       <c r="J10">
-        <v>9.753614970396535</v>
+        <v>6.740483191205559</v>
       </c>
       <c r="K10">
-        <v>13.3858549115165</v>
+        <v>21.72493530250511</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.6042627779399</v>
+        <v>12.90002837028183</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.241016101368622</v>
+        <v>10.16945450743229</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.47482899352876</v>
+        <v>10.18545075267606</v>
       </c>
       <c r="E11">
-        <v>14.4411813493935</v>
+        <v>13.73902765527805</v>
       </c>
       <c r="F11">
-        <v>28.23594242244596</v>
+        <v>21.30169770641588</v>
       </c>
       <c r="G11">
-        <v>26.64400419352246</v>
+        <v>21.3781798595289</v>
       </c>
       <c r="H11">
-        <v>13.67937703808339</v>
+        <v>7.807069631699445</v>
       </c>
       <c r="I11">
-        <v>18.69353264686819</v>
+        <v>11.41827951652023</v>
       </c>
       <c r="J11">
-        <v>9.756647552340826</v>
+        <v>6.843825225251877</v>
       </c>
       <c r="K11">
-        <v>13.72878066605303</v>
+        <v>22.42304559038215</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.55383845358569</v>
+        <v>12.9594697736075</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.288422979949696</v>
+        <v>10.28731936250381</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.49895277905228</v>
+        <v>10.29228068633724</v>
       </c>
       <c r="E12">
-        <v>14.46828077785819</v>
+        <v>13.87966284164858</v>
       </c>
       <c r="F12">
-        <v>28.23181526328618</v>
+        <v>21.44073914390138</v>
       </c>
       <c r="G12">
-        <v>26.63363385725048</v>
+        <v>21.53892413927019</v>
       </c>
       <c r="H12">
-        <v>13.66714717763693</v>
+        <v>7.798415291949567</v>
       </c>
       <c r="I12">
-        <v>18.66611846449621</v>
+        <v>11.34238148936606</v>
       </c>
       <c r="J12">
-        <v>9.758027777913506</v>
+        <v>6.883221633286407</v>
       </c>
       <c r="K12">
-        <v>13.85631984419778</v>
+        <v>22.68202928861941</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.53552570394248</v>
+        <v>12.98504811392597</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.278237085304684</v>
+        <v>10.26204598142835</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.49375188854301</v>
+        <v>10.26933988523218</v>
       </c>
       <c r="E13">
-        <v>14.46243054396062</v>
+        <v>13.84944181969708</v>
       </c>
       <c r="F13">
-        <v>28.23265096962241</v>
+        <v>21.41067821580015</v>
       </c>
       <c r="G13">
-        <v>26.63579538590689</v>
+        <v>21.50410383206969</v>
       </c>
       <c r="H13">
-        <v>13.6697646116756</v>
+        <v>7.800218478180794</v>
       </c>
       <c r="I13">
-        <v>18.67199645655444</v>
+        <v>11.35866483388812</v>
       </c>
       <c r="J13">
-        <v>9.757720228156572</v>
+        <v>6.874725510265424</v>
       </c>
       <c r="K13">
-        <v>13.82895616478065</v>
+        <v>22.62649143076403</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.53943485562907</v>
+        <v>12.97940047726673</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.244927064041653</v>
+        <v>10.17920131620801</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.47681121278396</v>
+        <v>10.19426981971586</v>
       </c>
       <c r="E14">
-        <v>14.4434045501292</v>
+        <v>13.75062802365125</v>
       </c>
       <c r="F14">
-        <v>28.23557892958244</v>
+        <v>21.31308445793755</v>
       </c>
       <c r="G14">
-        <v>26.64311862970784</v>
+        <v>21.39131368886941</v>
       </c>
       <c r="H14">
-        <v>13.6783634520823</v>
+        <v>7.806330418461132</v>
       </c>
       <c r="I14">
-        <v>18.69126548347805</v>
+        <v>11.41200721765474</v>
       </c>
       <c r="J14">
-        <v>9.756756464176917</v>
+        <v>6.847061227186227</v>
       </c>
       <c r="K14">
-        <v>13.73932024078648</v>
+        <v>22.44446001279501</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.55231616391879</v>
+        <v>12.96151174939015</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.224454021917872</v>
+        <v>10.12813163378131</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.46645066911903</v>
+        <v>10.1480919323519</v>
       </c>
       <c r="E15">
-        <v>14.43179156731428</v>
+        <v>13.68990579015244</v>
       </c>
       <c r="F15">
-        <v>28.23752799895818</v>
+        <v>21.25364542978984</v>
       </c>
       <c r="G15">
-        <v>26.64781472664401</v>
+        <v>21.3228161228743</v>
       </c>
       <c r="H15">
-        <v>13.68367875442307</v>
+        <v>7.810250336632597</v>
       </c>
       <c r="I15">
-        <v>18.70314488777699</v>
+        <v>11.44486313781081</v>
       </c>
       <c r="J15">
-        <v>9.756196291358501</v>
+        <v>6.830149750924786</v>
       </c>
       <c r="K15">
-        <v>13.68411168743071</v>
+        <v>22.33226073771672</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.5603082571262</v>
+        <v>12.95095854559593</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.106092659483133</v>
+        <v>9.830486460022927</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.4073383452231</v>
+        <v>9.880504371641084</v>
       </c>
       <c r="E16">
-        <v>14.36588466617122</v>
+        <v>13.33897887626702</v>
       </c>
       <c r="F16">
-        <v>28.25108115755381</v>
+        <v>20.91826545859516</v>
       </c>
       <c r="G16">
-        <v>26.6779437065312</v>
+        <v>20.93934836674382</v>
       </c>
       <c r="H16">
-        <v>13.71487807499031</v>
+        <v>7.835348723492712</v>
       </c>
       <c r="I16">
-        <v>18.77239542978637</v>
+        <v>11.63588527169669</v>
       </c>
       <c r="J16">
-        <v>9.753449289017828</v>
+        <v>6.733767389672058</v>
       </c>
       <c r="K16">
-        <v>13.36312294637735</v>
+        <v>21.67855950610097</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.60766734984696</v>
+        <v>12.8965649644882</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.032588219330252</v>
+        <v>9.643437601916361</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.371320574359</v>
+        <v>9.713745081462449</v>
       </c>
       <c r="E17">
-        <v>14.32604141292919</v>
+        <v>13.12112226582734</v>
       </c>
       <c r="F17">
-        <v>28.26152113150635</v>
+        <v>20.71722977988838</v>
       </c>
       <c r="G17">
-        <v>26.69928962390651</v>
+        <v>20.71221544820592</v>
       </c>
       <c r="H17">
-        <v>13.73467738151262</v>
+        <v>7.853026892571252</v>
       </c>
       <c r="I17">
-        <v>18.81592738204233</v>
+        <v>11.75545943749612</v>
       </c>
       <c r="J17">
-        <v>9.752178224046707</v>
+        <v>6.675128996269122</v>
       </c>
       <c r="K17">
-        <v>13.16214785862148</v>
+        <v>21.26795354841742</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.63810955746945</v>
+        <v>12.86849961959153</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.989995645216101</v>
+        <v>9.534214158301424</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.35069991299736</v>
+        <v>9.616889855756652</v>
       </c>
       <c r="E18">
-        <v>14.30334688142353</v>
+        <v>12.99489680813796</v>
       </c>
       <c r="F18">
-        <v>28.26830633370574</v>
+        <v>20.6033423813481</v>
       </c>
       <c r="G18">
-        <v>26.7126158345276</v>
+        <v>20.58456312569661</v>
       </c>
       <c r="H18">
-        <v>13.74630767396495</v>
+        <v>7.864005878205687</v>
       </c>
       <c r="I18">
-        <v>18.8413517040985</v>
+        <v>11.82509266119305</v>
       </c>
       <c r="J18">
-        <v>9.751599666452599</v>
+        <v>6.641587884290029</v>
       </c>
       <c r="K18">
-        <v>13.04508404632249</v>
+        <v>21.02826218185234</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.6561284409367</v>
+        <v>12.85425595495152</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.975521805419145</v>
+        <v>9.496951584063003</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.34373508639037</v>
+        <v>9.583936691269964</v>
       </c>
       <c r="E19">
-        <v>14.29570163616437</v>
+        <v>12.95200367489603</v>
       </c>
       <c r="F19">
-        <v>28.27073764384649</v>
+        <v>20.56508255779507</v>
       </c>
       <c r="G19">
-        <v>26.71730761724463</v>
+        <v>20.54185598975794</v>
       </c>
       <c r="H19">
-        <v>13.75028708733022</v>
+        <v>7.867859908398618</v>
       </c>
       <c r="I19">
-        <v>18.85002625856114</v>
+        <v>11.84881471819163</v>
       </c>
       <c r="J19">
-        <v>9.751430003310697</v>
+        <v>6.630264033322325</v>
       </c>
       <c r="K19">
-        <v>13.00519842875789</v>
+        <v>20.94650202645171</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.66231669846677</v>
+        <v>12.84975456919357</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.040445784009894</v>
+        <v>9.663518764353919</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.37514493556426</v>
+        <v>9.73159455259839</v>
       </c>
       <c r="E20">
-        <v>14.33025992657783</v>
+        <v>13.14440932106088</v>
       </c>
       <c r="F20">
-        <v>28.26032899142697</v>
+        <v>20.73845024883797</v>
       </c>
       <c r="G20">
-        <v>26.6969087076334</v>
+        <v>20.73608496051348</v>
       </c>
       <c r="H20">
-        <v>13.73254463632784</v>
+        <v>7.851060479940572</v>
       </c>
       <c r="I20">
-        <v>18.81125340179688</v>
+        <v>11.74264139714394</v>
       </c>
       <c r="J20">
-        <v>9.752297752539908</v>
+        <v>6.681352035776183</v>
       </c>
       <c r="K20">
-        <v>13.18369450926079</v>
+        <v>21.31202774350083</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.63481619376189</v>
+        <v>12.87128956079053</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.254725617897736</v>
+        <v>10.20360250469539</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.48178377352417</v>
+        <v>10.21636049303073</v>
       </c>
       <c r="E21">
-        <v>14.4489844380296</v>
+        <v>13.77969297755735</v>
       </c>
       <c r="F21">
-        <v>28.23468648526688</v>
+        <v>21.34167933459261</v>
       </c>
       <c r="G21">
-        <v>26.640923751646</v>
+        <v>21.42432007304875</v>
       </c>
       <c r="H21">
-        <v>13.6758277052802</v>
+        <v>7.804498320096986</v>
       </c>
       <c r="I21">
-        <v>18.68558974838346</v>
+        <v>11.39630116797525</v>
       </c>
       <c r="J21">
-        <v>9.757033261679501</v>
+        <v>6.855179908357924</v>
       </c>
       <c r="K21">
-        <v>13.76571194081932</v>
+        <v>22.49807286511541</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.54851136539603</v>
+        <v>12.96668161103754</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.391686491217044</v>
+        <v>10.54203074282727</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.55221429322346</v>
+        <v>10.52448453538402</v>
       </c>
       <c r="E22">
-        <v>14.52842851204531</v>
+        <v>14.18618430003482</v>
       </c>
       <c r="F22">
-        <v>28.22489053463476</v>
+        <v>21.75117521474271</v>
       </c>
       <c r="G22">
-        <v>26.61374225184043</v>
+        <v>21.90053757576121</v>
       </c>
       <c r="H22">
-        <v>13.64091977858878</v>
+        <v>7.78187827576552</v>
       </c>
       <c r="I22">
-        <v>18.60688938150007</v>
+        <v>11.17804452651482</v>
       </c>
       <c r="J22">
-        <v>9.761479023249301</v>
+        <v>6.970311649534948</v>
       </c>
       <c r="K22">
-        <v>14.13254971969801</v>
+        <v>23.241897840491</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.49666491868753</v>
+        <v>13.04698134667825</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.318882871678708</v>
+        <v>10.36273383887061</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.51456256788167</v>
+        <v>10.36084259234025</v>
       </c>
       <c r="E23">
-        <v>14.48586468759151</v>
+        <v>13.9700499210547</v>
       </c>
       <c r="F23">
-        <v>28.22948121961317</v>
+        <v>21.53123754506172</v>
       </c>
       <c r="G23">
-        <v>26.62738556734108</v>
+        <v>21.64396674940884</v>
       </c>
       <c r="H23">
-        <v>13.65935303885494</v>
+        <v>7.793207069151394</v>
       </c>
       <c r="I23">
-        <v>18.64857996521359</v>
+        <v>11.29376641107245</v>
       </c>
       <c r="J23">
-        <v>9.758983018255691</v>
+        <v>6.908730190506858</v>
       </c>
       <c r="K23">
-        <v>13.93802138126363</v>
+        <v>22.84776690366933</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.52391810508396</v>
+        <v>13.00243186515976</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.036894415814234</v>
+        <v>9.654445324407709</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.37341567133357</v>
+        <v>9.723527864823113</v>
       </c>
       <c r="E24">
-        <v>14.32835207515437</v>
+        <v>13.1338842797633</v>
       </c>
       <c r="F24">
-        <v>28.26086551875326</v>
+        <v>20.72885120574681</v>
       </c>
       <c r="G24">
-        <v>26.69798183705822</v>
+        <v>20.72528442774324</v>
       </c>
       <c r="H24">
-        <v>13.73350807978601</v>
+        <v>7.851946961215218</v>
       </c>
       <c r="I24">
-        <v>18.81336527085983</v>
+        <v>11.74843367067786</v>
       </c>
       <c r="J24">
-        <v>9.75224323956081</v>
+        <v>6.678538065842862</v>
       </c>
       <c r="K24">
-        <v>13.17395799920415</v>
+        <v>21.29211310210579</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.63630351253056</v>
+        <v>12.87002234868356</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.720892700492636</v>
+        <v>8.827837061974602</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.22489583345978</v>
+        <v>9.00047214396448</v>
       </c>
       <c r="E25">
-        <v>14.16701599230873</v>
+        <v>12.19724407690705</v>
       </c>
       <c r="F25">
-        <v>28.32453876374265</v>
+        <v>19.930094516263</v>
       </c>
       <c r="G25">
-        <v>26.81416710093865</v>
+        <v>19.84849725443536</v>
       </c>
       <c r="H25">
-        <v>13.82275689951304</v>
+        <v>7.945998214051761</v>
       </c>
       <c r="I25">
-        <v>19.00587226443685</v>
+        <v>12.27147742030499</v>
       </c>
       <c r="J25">
-        <v>9.750807639949146</v>
+        <v>6.437445000243835</v>
       </c>
       <c r="K25">
-        <v>12.2940530901943</v>
+        <v>19.47953319696608</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.77698789190762</v>
+        <v>12.79909877260848</v>
       </c>
     </row>
   </sheetData>
